--- a/EleccionesCAMVOX.xlsx
+++ b/EleccionesCAMVOX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dipus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3CA20F-FAD2-4A99-AC81-2B94D94761CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB9115-6BA0-4574-A40D-768012243CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{AC4A673A-371C-4FF6-B49E-25028415119F}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89A283A-C569-4E7A-AF15-C5356B3E6CF4}">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +755,16 @@
       </c>
       <c r="H2" s="6">
         <v>5211765</v>
+      </c>
+      <c r="I2" s="3">
+        <v>33141</v>
+      </c>
+      <c r="J2" s="3">
+        <f>+L2-K2</f>
+        <v>3401721</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12098</v>
       </c>
       <c r="L2" s="3">
         <v>3413819</v>
